--- a/output/nswhealthitocmedicationlist.xlsx
+++ b/output/nswhealthitocmedicationlist.xlsx
@@ -550,7 +550,7 @@
 </t>
   </si>
   <si>
-    <t>When the list was prepared</t>
+    <t>The date on which the list was created.</t>
   </si>
   <si>
     <t>The date that the list was prepared.</t>
@@ -780,7 +780,7 @@
 </t>
   </si>
   <si>
-    <t>Actual entry</t>
+    <t>A reference to a NSW Health Medication Statement or NSW Health Medication Administration</t>
   </si>
   <si>
     <t>A reference to the actual resource from which data was derived.</t>
@@ -792,7 +792,7 @@
     <t>List.emptyReason</t>
   </si>
   <si>
-    <t>Why list is empty</t>
+    <t>The reason why the list is empty.</t>
   </si>
   <si>
     <t>If the list is empty, why the list is empty.</t>
@@ -978,7 +978,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.67578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.49609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
